--- a/Documentation/journal de travail.xlsx
+++ b/Documentation/journal de travail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFC32CE-809C-4E12-9FC5-F1A9AEAEA0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA9CDD-02AA-4EE9-BF19-7D4FB5AD6807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67ED1187-3756-426A-A904-E9527551CCF3}"/>
+    <workbookView xWindow="7770" yWindow="825" windowWidth="21600" windowHeight="11385" xr2:uid="{67ED1187-3756-426A-A904-E9527551CCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -701,7 +701,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,31 +1184,47 @@
       <c r="A35" s="4">
         <v>45051</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
+      <c r="B35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.75</v>
+      </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45051</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45051</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45051</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
@@ -1216,7 +1232,9 @@
       <c r="A39" s="4">
         <v>45051</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
@@ -1329,11 +1347,11 @@
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="9">
         <f>SUM(C3:C56)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="9">
         <f>SUM(D3:D56)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>7</v>

--- a/Documentation/journal de travail.xlsx
+++ b/Documentation/journal de travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133_Memory\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA9CDD-02AA-4EE9-BF19-7D4FB5AD6807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA7BEB1-C96E-4A41-B33B-D52932A85797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="825" windowWidth="21600" windowHeight="11385" xr2:uid="{67ED1187-3756-426A-A904-E9527551CCF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67ED1187-3756-426A-A904-E9527551CCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Test : Service REST User</t>
+  </si>
+  <si>
+    <t>Conception : Diagramme de séquence REST User</t>
+  </si>
+  <si>
+    <t>Conception : Diagramme de séquence REST Classement</t>
+  </si>
+  <si>
+    <t>Diagramme de séquence REST Classement</t>
+  </si>
+  <si>
+    <t>Gestion de projet planning</t>
   </si>
 </sst>
 </file>
@@ -185,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -335,11 +347,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,6 +468,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FAA8B3-4558-49E4-B202-A0E376610493}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,31 +968,31 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>45016</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>0.5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="18">
         <v>45022</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="20">
         <v>3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="20">
         <v>0</v>
       </c>
     </row>
@@ -928,31 +1038,31 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
         <v>45022</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="23">
+        <v>0</v>
+      </c>
+      <c r="D17" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="18">
         <v>45043</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="20">
         <v>1</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="20">
         <v>0</v>
       </c>
     </row>
@@ -998,31 +1108,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
         <v>45043</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="23">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="18">
         <v>45044</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="20">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20">
         <v>2.75</v>
       </c>
     </row>
@@ -1124,35 +1234,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
         <v>45044</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
+      <c r="D31" s="23">
         <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="18">
         <v>45050</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="20">
         <v>3.5</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45050</v>
       </c>
@@ -1166,45 +1276,49 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
         <v>45050</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="23">
+        <v>0</v>
+      </c>
+      <c r="D34" s="23">
         <v>1.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
         <v>45051</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="D35" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>45051</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
       <c r="D36" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>45051</v>
       </c>
@@ -1212,148 +1326,106 @@
         <v>17</v>
       </c>
       <c r="C37" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D37" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>45051</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>45051</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>45051</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>45051</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="9">
-        <f>SUM(C3:C56)</f>
-        <v>25</v>
-      </c>
-      <c r="D57" s="9">
-        <f>SUM(D3:D56)</f>
-        <v>25</v>
-      </c>
-      <c r="E57" s="8" t="s">
+      <c r="B41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45051</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <v>45051</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="9">
+        <f>SUM(C3:C43)</f>
+        <v>31</v>
+      </c>
+      <c r="D44" s="9">
+        <f>SUM(D3:D43)</f>
+        <v>31</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>7</v>
       </c>
     </row>
